--- a/InputFiles/TC05_Bento_LocalSearch-UploadCaseSet_Upload_txt.xlsx
+++ b/InputFiles/TC05_Bento_LocalSearch-UploadCaseSet_Upload_txt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9723A897-A258-432A-B0ED-44AEE76F23EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6F0AD-3105-4843-A5C3-2C885570B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,24 @@
   <si>
     <t>MATCH (ss:study_subject)
 	WHERE ss.study_subject_id in ['BENTO-CASE-3282798','BENTO-CASE-3292831','BENTO-CASE-3295670','BENTO-CASE-3295756','BENTO-CASE-3296613','BENTO-CASE-4187183','BENTO-CASE-4213980']
+MATCH (ss)&lt;-[*..2]-(parent)&lt;--(f:file)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (ss)&lt;-[:sample_of_study_subject]-(samp)
+RETURN DISTINCT 
+	f.file_name AS `File Name`,
+	head(labels(parent)) AS `Association`,
+	f.file_description AS `Description`,
+	f.file_format AS `File Format`,
+	f.file_size AS `Size`,
+	p.program_acronym AS `Program Code`,
+	s.study_acronym AS `Arm`,
+	ss.study_subject_id AS `Case ID`,
+	samp.sample_id AS `Sample ID`
+ order By f.file_name ASC LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (ss:study_subject)
+	WHERE ss.study_subject_id in ['BENTO-CASE-3282798','BENTO-CASE-3292831','BENTO-CASE-3295670','BENTO-CASE-3295756','BENTO-CASE-3296613','BENTO-CASE-4187183','BENTO-CASE-4213980']
 MATCH (ss)&lt;-[:sample_of_study_subject]-(samp)
 MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
 MATCH (ss)&lt;-[*..2]-(parent)&lt;--(f:file)
@@ -98,7 +116,8 @@
 	samp.composition AS `Tissue Composition`,
 	samp.sample_anatomic_site AS `Sample Anatomic Site`,
 	samp.method_of_sample_procurement AS `Sample Procurement Method`,
-	lp.test_name AS `platform`</t>
+	lp.test_name AS `platform`
+ order By samp.sample_id ASC LIMIT 100</t>
   </si>
   <si>
     <t>MATCH (ss:study_subject)
@@ -121,24 +140,8 @@
 	d.er_status AS `ER Status`,
 	d.pr_status AS `PR Status`,
 	demo.age_at_index AS `Age (years)`,
-	demo.survival_time AS `Survival (days)`</t>
-  </si>
-  <si>
-    <t>MATCH (ss:study_subject)
-	WHERE ss.study_subject_id in ['BENTO-CASE-3282798','BENTO-CASE-3292831','BENTO-CASE-3295670','BENTO-CASE-3295756','BENTO-CASE-3296613','BENTO-CASE-4187183','BENTO-CASE-4213980']
-MATCH (ss)&lt;-[*..2]-(parent)&lt;--(f:file)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
-MATCH (ss)&lt;-[:sample_of_study_subject]-(samp)
-RETURN DISTINCT 
-	f.file_name AS `File Name`,
-	head(labels(parent)) AS `Association`,
-	f.file_description AS `Description`,
-	f.file_format AS `File Format`,
-	f.file_size AS `Size`,
-	p.program_acronym AS `Program Code`,
-	s.study_acronym AS `Arm`,
-	ss.study_subject_id AS `Case ID`,
-	samp.sample_id AS `Sample ID`</t>
+	demo.survival_time AS `Survival (days)`
+ order By ss.study_subject_id ASC LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -510,20 +513,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.81640625" customWidth="1"/>
-    <col min="3" max="3" width="60.453125" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -540,12 +543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -557,12 +560,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -574,12 +577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
